--- a/biology/Histoire de la zoologie et de la botanique/Giacomo_Bresadola/Giacomo_Bresadola.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giacomo_Bresadola/Giacomo_Bresadola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbé Giacomo Bresadola (ou Giacopo Bresàdola) est un mycologue et botaniste italien, né à Ortisé (Mezzana, Trentin) le 14 février 1847 et mort à Trente le 9 juin 1929. Il est l'un des membres fondateurs, puis membre honoraire de la Société mycologique de France.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 14 février 1847, de parents paysans du Trentin (alors possession autrichienne), il s'adonne très jeune à la botanique. Il va à l’école élémentaire à Mezzana[1], il est envoyé à neuf ans par son père à Cloz, dans le Val di Non, pour y poursuivre ses études auprès d’un oncle prêtre. Mais ce curé juge son comportement trop vif et le renvoie bientôt chez ses parents. En 1857, son père part à Montichiari (Brescia) tenir un commerce d’objets en cuivre. À douze ans, il part étudier à Rovereto à l’institut technique. Ne supportant pas de se voir attribuer la seconde place, alors qu’il avait été premier durant quatre ans de suite, il quitte ses études pour entrer au séminaire de Trente.
-Après le sacerdoce, il est nommé dans les paroisses de Baselga di Pinè, puis de Roncegno (dans la Valsugana) et passe un an à Malè (Val di Sole). En 1878, il devient curé à Magràs (Val di Sole), où il restera cinq ans. Il commence à s’intéresser à la botanique et fréquente Francesco Ambrosi (1821-1897). Celui-ci lui fait rencontrer le bryologiste Gustavo Venturi (1830-1898). C’est le grand nombre de champignons qu’il découvre durant ses excursions ainsi que sa rencontre avec plusieurs mycologues qui le décident à s’intéresser à la mycologie. C’est ainsi qu’il rencontre Pier Andrea Saccardo (1845-1920), professeur de botanique à l’université de Padoue et célèbre mycologue. Celui-ci l’oriente vers Lucien Quélet (1832-1899), puis vers Émile Boudier (1828-1920), avec qui il sympathisera. Dès lors, il va entretenir une intensive correspondance avec les spécialistes italiens et étrangers[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 14 février 1847, de parents paysans du Trentin (alors possession autrichienne), il s'adonne très jeune à la botanique. Il va à l’école élémentaire à Mezzana, il est envoyé à neuf ans par son père à Cloz, dans le Val di Non, pour y poursuivre ses études auprès d’un oncle prêtre. Mais ce curé juge son comportement trop vif et le renvoie bientôt chez ses parents. En 1857, son père part à Montichiari (Brescia) tenir un commerce d’objets en cuivre. À douze ans, il part étudier à Rovereto à l’institut technique. Ne supportant pas de se voir attribuer la seconde place, alors qu’il avait été premier durant quatre ans de suite, il quitte ses études pour entrer au séminaire de Trente.
+Après le sacerdoce, il est nommé dans les paroisses de Baselga di Pinè, puis de Roncegno (dans la Valsugana) et passe un an à Malè (Val di Sole). En 1878, il devient curé à Magràs (Val di Sole), où il restera cinq ans. Il commence à s’intéresser à la botanique et fréquente Francesco Ambrosi (1821-1897). Celui-ci lui fait rencontrer le bryologiste Gustavo Venturi (1830-1898). C’est le grand nombre de champignons qu’il découvre durant ses excursions ainsi que sa rencontre avec plusieurs mycologues qui le décident à s’intéresser à la mycologie. C’est ainsi qu’il rencontre Pier Andrea Saccardo (1845-1920), professeur de botanique à l’université de Padoue et célèbre mycologue. Celui-ci l’oriente vers Lucien Quélet (1832-1899), puis vers Émile Boudier (1828-1920), avec qui il sympathisera. Dès lors, il va entretenir une intensive correspondance avec les spécialistes italiens et étrangers
 Dès 1881, il publie le premier fascicule de ses Fungi tridentini novi vel novum vel nondum delineati, qu'il achèvera en 1892 avec un total de 217 planches et 232 pages de texte. En 1884, il part à la cure de Trente et est nommé administrateur des domaines épiscopaux à Trente de 1887 à 1910, où il résidera toute sa vie.
 Il devient, avec Lucien Quélet (1832-1899) et Adalbert Ricken (1851-1921), le spécialiste incontesté des Agaricomycètes, puis celui des Aphyllophoromycetidae avec Narcisse Théophile Patouillard (1854-1926) et le chanoine Hubert Bourdot (1861-1937), enfin, celui des Discomycètes avec Émile Boudier (1828-1920).
 Il se passionne alors pour les espèces exotiques et publie des observations sur les spécimens qu'il reçoit de toutes les parties du monde (Cameroun, Congo, Hongrie, Saxe, Pologne, îles Sao Tomé-et-Principe, Samoa, etc.) et détermine avec une grande précision.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1881 : Fungi Tridentini novi, vel nondum delineati, descripti, et iconibus illustrati
 1890 : Fungi Kamerunenses a cl. viro Joanne Braun lecti, additis nonnullis aliis novis, vel criticis ex regio museo bot. Berolinensi. Bulletin de la Société mycologique de France 6 (1): 32-49.
@@ -558,11 +574,11 @@
 1892 : Fungi aliquot Saxonici novi lecti a cl. W. Krieger. Hedwigia 31: 40-41.
 1893 : Fungi aliquot Saxonici novi lecti a cl. W. Krieger. Hedwigia 32: 32-[?].
 1894 : Fungi aliquot Saxonici novi vel critici a cl. W. Krieger lecti (contributio III ad Floram Mycol. Saxoniae). Hedwigia 33: 206-210.
-1896 : Fungi aliquot Saxonici novi a cl. W. Krieger lecti. IV. Hedwigia 35: 199-[200].
+1896 : Fungi aliquot Saxonici novi a cl. W. Krieger lecti. IV. Hedwigia 35: 199-.
 1896 : Fungi Brasilienses lecti a cl. Dr Alfredo Möller. Hedwigia 35: 276-302.
-1897 : Hymenomycetes Hungarici Kmetiani. Atti dell'I.R. Accademia di Scienze Lettere ed Arti degli Agiati in Rovereto Ser. 3 3: 66-[114].
+1897 : Hymenomycetes Hungarici Kmetiani. Atti dell'I.R. Accademia di Scienze Lettere ed Arti degli Agiati in Rovereto Ser. 3 3: 66-.
 1899 : I funghi mangerecci e velenosi dell'Europa media con speciale riguardo a quelli che crescono nel Trentino (première édition).
-1900 : Fungi aliquot Saxonici novi. VI. Hedwigia 39: 325-[347].
+1900 : Fungi aliquot Saxonici novi. VI. Hedwigia 39: 325-.
 1900 : Hymenomycetes Fuegiani a cl. P. Dusén et O. Nordenskjöld lecti. K. Vetenskaps-Akademiens Förhandlingar 2: 311-316.
 1900 : Hymenomycetes fuegiani a Dusén, Nordenskjold lecti. Wissenschaftliche Ergebnisse der Schwedischen Expedition nach den Magellansländern. 1895-1897 Band. III.
 1902 : Mycetes Lusitanici novi. Atti dell'I.R. Accademia di Scienze Lettere ed Arti degli Agiati in Rovereto Ser. 3 8: 128-133.
@@ -619,7 +635,9 @@
           <t>Taxons décrits par Bresadola</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genres : 
 Bourdotia (Bres.) Bres. &amp; Torrend, Broteria, ser. bot. 11: 88 (1913)
@@ -695,7 +713,9 @@
           <t>Taxons dédiés à Bresadola</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Espèces :
 Agaricus bresadolae Schulzer, [= Lepiota, Leucocoprinus, = Leucoagaricus americanus)
